--- a/CS department instructor list.xlsx
+++ b/CS department instructor list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\memre\OneDrive\Masaüstü\CS319-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A5BE6C-5001-4530-AE7D-8F13B0453AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7458146-F6E1-4D24-BECB-02D56A0CD4CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2024_2025 Fall" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Name</t>
   </si>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>IE</t>
-  </si>
-  <si>
-    <t>ME</t>
   </si>
   <si>
     <t>instructor1@bilkent.edu.tr</t>
@@ -1342,7 +1339,7 @@
   <dimension ref="A1:F117"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="16.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1390,7 +1387,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>15</v>
@@ -1413,7 +1410,7 @@
         <v>13</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
